--- a/Thesis-codes/Exp1-summary.xlsx
+++ b/Thesis-codes/Exp1-summary.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/thleeag_connect_ust_hk/Documents/MPhil-thesis-github-library/MPhil-thesis/Thesis-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinghsi/Github/MPhil-thesis/Thesis-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0AE56FBA-6561-4788-AAF0-4AD006F685B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F46DFF-B37D-554D-85C0-8170C9629890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3497" yWindow="1620" windowWidth="18514" windowHeight="15266"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fc1_all_dataset!$A$1:$R$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -85,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,7 +581,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,37 +938,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="141" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.23046875" style="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -978,427 +988,427 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0.67310000000000003</v>
+        <v>0.42109999999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>0.13389999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.52849999999999997</v>
       </c>
       <c r="F2" s="1">
-        <v>0.44629999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.36449999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1056</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.7077</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.60870000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.75160000000000005</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.5262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.76819999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.60340000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="1">
-        <v>0.59219999999999995</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1706</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.87309999999999999</v>
+        <v>0.58479999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>0.3967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>0.62639999999999996</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.67589999999999995</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="F6" s="1">
-        <v>0.56859999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.45929999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>0.69130000000000003</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>8.1600000000000006E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.7631</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="F7" s="1">
-        <v>0.55620000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.52729999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.50160000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.63580000000000003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.45929999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="1">
-        <v>0.57079999999999997</v>
+        <v>0.57340000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>4.8300000000000003E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.63639999999999997</v>
+        <v>0.6482</v>
       </c>
       <c r="F9" s="1">
-        <v>0.50160000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.52680000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>0.42109999999999997</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>6.3E-2</v>
+        <v>0.1101</v>
       </c>
       <c r="E10" s="1">
-        <v>0.52849999999999997</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="F10" s="1">
-        <v>0.36449999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.47820000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.48830000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.54039999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1706</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.3967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.50960000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.45689999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.38219999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C19" s="1">
         <v>0.60660000000000003</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D19" s="1">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E19" s="1">
         <v>0.62780000000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F19" s="1">
         <v>0.57609999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.18759999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.81589999999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.38219999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.52680000000000005</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.58479999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.6401</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.67169999999999996</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.61990000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.66339999999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.16089999999999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.82879999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.44619999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.6633</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.76680000000000004</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.58250000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.60709999999999997</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.6804</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.5202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.60950000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>0.51729999999999998</v>
+        <v>0.60709999999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>5.2299999999999999E-2</v>
+        <v>5.3100000000000001E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.58630000000000004</v>
+        <v>0.6804</v>
       </c>
       <c r="F20" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.5202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
-        <v>0.61680000000000001</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>2.87E-2</v>
+        <v>9.0700000000000003E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.67330000000000001</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="F21" s="1">
-        <v>0.59430000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.5262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>0.76049999999999995</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.78200000000000003</v>
+        <v>0.65629999999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>0.7208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.51070000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1418,527 +1428,532 @@
         <v>0.5272</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
-        <v>0.59960000000000002</v>
+        <v>0.61680000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>6.1600000000000002E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.66820000000000002</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="F24" s="1">
-        <v>0.52429999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.59430000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
-        <v>0.51859999999999995</v>
+        <v>0.62170000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.1056</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.7077</v>
+        <v>0.6633</v>
       </c>
       <c r="F25" s="1">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.5706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.19E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.55520000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.56859999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
         <v>0.63660000000000005</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D28" s="1">
         <v>3.44E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>0.66910000000000003</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F28" s="1">
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.74650000000000005</v>
-      </c>
-      <c r="D27" s="1">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.85260000000000002</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.56920000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.58609999999999995</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.48830000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1">
-        <v>0.59260000000000002</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="D29" s="1">
-        <v>5.6500000000000002E-2</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>0.66159999999999997</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="F29" s="1">
-        <v>0.50960000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.53129999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
-        <v>0.57979999999999998</v>
+        <v>0.6401</v>
       </c>
       <c r="D30" s="1">
-        <v>0.1101</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="1">
-        <v>0.76749999999999996</v>
+        <v>0.67169999999999996</v>
       </c>
       <c r="F30" s="1">
-        <v>0.47820000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.63419999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.64480000000000004</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.70489999999999997</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>0.60129999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.82979999999999998</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.0926</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.74890000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>2.2700000000000001E-2</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.58520000000000005</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="F33" s="1">
-        <v>0.52729999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.52990000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1">
-        <v>0.63929999999999998</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="D34" s="1">
-        <v>7.7100000000000002E-2</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.72140000000000004</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="F34" s="1">
-        <v>0.53129999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.60340000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.60950000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.57020000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.44629999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.57210000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.7631</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C43" s="1">
         <v>0.69330000000000003</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D43" s="1">
         <v>0.17050000000000001</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E43" s="1">
         <v>1.0065</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F43" s="1">
         <v>0.50780000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.62480000000000002</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4.19E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.55520000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C44" s="1">
         <v>0.69930000000000003</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D44" s="1">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E44" s="1">
         <v>0.76690000000000003</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F44" s="1">
         <v>0.61929999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.57340000000000002</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.6482</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.52680000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.64910000000000001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.52990000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.65649999999999997</v>
-      </c>
-      <c r="D40" s="1">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.72829999999999995</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.54910000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.65380000000000005</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.63419999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.7026</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.1658</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.43409999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.54039999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.74560000000000004</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.57210000000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="1">
-        <v>0.58709999999999996</v>
+        <v>0.7026</v>
       </c>
       <c r="D45" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>0.1658</v>
       </c>
       <c r="E45" s="1">
-        <v>0.62280000000000002</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F45" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.43409999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>0.61009999999999998</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="D46" s="1">
-        <v>5.2699999999999997E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E46" s="1">
-        <v>0.65629999999999999</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="F46" s="1">
-        <v>0.51070000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.58250000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1">
-        <v>0.66069999999999995</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="D47" s="1">
-        <v>1.89E-2</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="E47" s="1">
-        <v>0.67730000000000001</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="F47" s="1">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+        <v>0.56920000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.7208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D48" s="1">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.74180000000000001</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.57020000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
-        <v>0.59630000000000005</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="D49" s="1">
-        <v>9.7699999999999995E-2</v>
+        <v>0.13189999999999999</v>
       </c>
       <c r="E49" s="1">
-        <v>0.68189999999999995</v>
+        <v>1.0926</v>
       </c>
       <c r="F49" s="1">
-        <v>0.45689999999999997</v>
+        <v>0.74890000000000001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R49" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R49">
+      <sortCondition ref="C1:C49"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
